--- a/biology/Botanique/Crepidomanes/Crepidomanes.xlsx
+++ b/biology/Botanique/Crepidomanes/Crepidomanes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crepidomanes est un genre de fougères de la famille des Hyménophyllacées. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Avec le genre Trichomanes, il s'agit du genre de la famille des Hyménophyllacées qui présente une des plus grandes hétérogénéités morphologiques :
 une taille généralement petite sauf pour le sous-genre Nesopteris
@@ -549,7 +563,9 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plupart des espèces du genre sont épiphytes, sur des arbres des forêts tropicales humides. 
 Ce genre est représenté uniquement dans l'ancien monde : Afrique, Asie, Pacifique.
@@ -581,13 +597,15 @@
           <t>Historique du genre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est d'abord constitué en 1849 comme sous-genre du genre Trichomanes par Karel Bořivoj Presl, qui le reclasse en 1851 comme genre distinct de la famille des Hyménophyllacées.
-En 1875, Karl Anton Eugen Prantl en fait une section du genre Trichomanes[1].
-En 1938, Edwin Bingham Copeland redéfinit le genre de  Karel Bořivoj Presll et définit d'autres genres dont Crepidopteris, Gonocormus, Microtrichomanes et Vandenboschia[2].
-En 1968, Conrad Vernon Morton replace partiellement ces genres en sections du sous-genre Trichomanes du genre Trichomanes (en particulier Crepidomanes, Crepidium et Gonocormus)[3].
-Enfin en 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito sur la base d'études de phylogénétique moléculaire, le redéfinisse comme genre à part entière, en y incluant au genre initial de Presl, le genre Gonocormus et partiellement les genres Crepidopteris, Microtrichomanes et Vandenboschia de Copeland[4].
+En 1875, Karl Anton Eugen Prantl en fait une section du genre Trichomanes.
+En 1938, Edwin Bingham Copeland redéfinit le genre de  Karel Bořivoj Presll et définit d'autres genres dont Crepidopteris, Gonocormus, Microtrichomanes et Vandenboschia.
+En 1968, Conrad Vernon Morton replace partiellement ces genres en sections du sous-genre Trichomanes du genre Trichomanes (en particulier Crepidomanes, Crepidium et Gonocormus).
+Enfin en 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito sur la base d'études de phylogénétique moléculaire, le redéfinisse comme genre à part entière, en y incluant au genre initial de Presl, le genre Gonocormus et partiellement les genres Crepidopteris, Microtrichomanes et Vandenboschia de Copeland.
 </t>
         </is>
       </c>
@@ -616,13 +634,90 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>La liste des espèces a été constituée en premier à partir du document de Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito, et a été complétée des indications des index IPNI[5] et Tropicos[6] à la date de juin 2010. Lorsque ces indications n'ont pas été suffisantes, en particulier pour les synonymies, elles ont été recherchées dans les documents et index historiques comme ceux de Conrad Vernon Morton, Carl Frederik Albert Christensen (en général retranscrit par l'IPNI) et tout autre document disponible, en particulier sur le site de la librairie numérique sur la biodiversité[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste des espèces a été constituée en premier à partir du document de Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito, et a été complétée des indications des index IPNI et Tropicos à la date de juin 2010. Lorsque ces indications n'ont pas été suffisantes, en particulier pour les synonymies, elles ont été recherchées dans les documents et index historiques comme ceux de Conrad Vernon Morton, Carl Frederik Albert Christensen (en général retranscrit par l'IPNI) et tout autre document disponible, en particulier sur le site de la librairie numérique sur la biodiversité.
 Le genre a été subdivisé en deux sous-genres : Crépidomanes et Nesopteris, le premier étant lui-même subdivisé en trois sections Crepidomanes, Crepidium et Gonocormus.
-Sous-genre Crepidomanes
-Le sous-genre Crepidomanes comprend toutes les espèces à petites frondes, de taille inférieure à 15 cm.
-Section Crepidomanes
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Crepidomanes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crepidomanes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous-genre Crepidomanes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sous-genre Crepidomanes comprend toutes les espèces à petites frondes, de taille inférieure à 15 cm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Crepidomanes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crepidomanes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous-genre Crepidomanes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Section Crepidomanes</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Crepidomanes barnardianum
 			Crepidomanes bipunctatum
 			Crepidomanes brevipes (Trichomanes melanorhizon)
@@ -695,30 +790,177 @@
 Crepidomanes vitiense (Hook. ex Baker) Bostock (1998) - Fidji, Nouvelle-Galles du Sud, Queensland (Synonymes : Microtrichomanes vitiense (Hook. ex Baker) Copel., Trichomanes vitiense Hook. Baker)
 Crepidomanes walleri (Watts) Tindale (1963) - Queensland (Synonyme : Trichomanes walleri Watts)
 Crepidomanes yunnanense Ching &amp; Chiu (1959) - Chine (Yunnan)
-Crepidomanes zayuense Ching &amp; S.K.Wu (1983) - Chine (Sichuan, Yunnan, Xizang)
-Section Crepidium (C.Presl) Atsushi Ebihara &amp; K.Iwats.
+Crepidomanes zayuense Ching &amp; S.K.Wu (1983) - Chine (Sichuan, Yunnan, Xizang)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Crepidomanes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crepidomanes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sous-genre Crepidomanes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Section Crepidium (C.Presl) Atsushi Ebihara &amp; K.Iwats.</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Crepidomanes humile
 Les espèces de cette section ont un long rhizome rampant, filiforme, souvent divisé ; leurs frondes sont plus petites que celles des espèces de la section Crepidomanes - pétiole inférieur à 1,2 cm, limbe de 1 à 8 cm le long -. Elles n'ont pas de fausses nervures. Elles présentent une double rangée de cellules marginales allongées (les espèces à une rangée simple appartiennent au genre Polyphlebium).
 Crepidomanes humile (G.Forst.) Bosch (1861) - Java, Taïwan, Nouvelle-Guinée, Polynésie (Synonymes : Trichomanes humile G.Forst., Trichomanes gracilimum Copel., Reediella humilis (G.Forst.) Pic.Serm.)
-Crepidomanes pseudonymani Hosok. (1941) - Îles Carolines[8]
-Section Gonocormus (Bosch) K.Iwats.
+Crepidomanes pseudonymani Hosok. (1941) - Îles Carolines</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Crepidomanes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crepidomanes</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sous-genre Crepidomanes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Section Gonocormus (Bosch) K.Iwats.</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Crepidomanes minutum
 			Crepidomanes proliferum
 Les espèces de cette section ont un long rhizome rampant, filiforme, souvent divisé, plus ou moins couvert de poils sombres. Le limbe est simple à segmenté 4 fois. Elles n'ont pas de fausses nervures.
 Crepidomanes minutum (Blume) K.Iwats. (1985) - Java, Bornéo, Nouvelle-Guinée, Philippines, Polynésie (Tahiti), Asie tropicale (Thaïlande, Chine, Corée...), la Réunion (Synonymes : Trichomanes minutum Blume, Trichomanes orbiculatum Ching ex Ogata, Trichomanes palmatum C.Presl, Trichomanes proliferum var. minutum Blume ex Hook., Trichomanes subtrifidum Mett. ex Christ, Crepidomanes proliferum var minutum (Blume) C.A.Hameed, Gonocormus minutus (Blume) Bosch)
 Crepidomanes mannii (Hook.) J.P.Roux (2000) - Afrique tropicale, Mascareignes (Synonymes : Trichomanes mannii Hook., Trichomanes trinerve Baker)
-Crepidomanes proliferum (Blume) Bostock (1998) - Asie tropicale (Synonyme : Trichomanes proliferum Blume - synonyme possible donné par l'index Tropicos : Crepidomanes minutum (Blume) K.Iwats., synonymie aussi reprise par Ebihara et Iwatsuki qui précisent que cette espèce est très polymorphique[9])
+Crepidomanes proliferum (Blume) Bostock (1998) - Asie tropicale (Synonyme : Trichomanes proliferum Blume - synonyme possible donné par l'index Tropicos : Crepidomanes minutum (Blume) K.Iwats., synonymie aussi reprise par Ebihara et Iwatsuki qui précisent que cette espèce est très polymorphique)
 Crepidomanes ruwenzoriense (Taton) J.P.Roux (2009) - Afrique centrale tropicale (Ruwenzori) (Synonyme :  Trichomanes ruwenzoriense Taton)
-Crepidomanes saxifragoides (C.Presl) Thapa (2002) - Java, Philippines, Mélanésie, Fidji, Île Amsterdam (Synonyme : Trichomanes saxifragoides C.Presl - synonyme possible donné par l'index Tropicos : Crepidomanes minutum (Blume) K.Iwats.)
-Sous-genre Nesopteris (Copel.) Ebihara &amp; K.Iwats.
+Crepidomanes saxifragoides (C.Presl) Thapa (2002) - Java, Philippines, Mélanésie, Fidji, Île Amsterdam (Synonyme : Trichomanes saxifragoides C.Presl - synonyme possible donné par l'index Tropicos : Crepidomanes minutum (Blume) K.Iwats.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Crepidomanes</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crepidomanes</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sous-genre Nesopteris (Copel.) Ebihara &amp; K.Iwats.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Crepidomanes grande
 Le sous-genre Nesopteris comprend toutes les espèces à grandes frondes, de taille supérieure à 15 cm. Elles possèdent en outre des racines nombreuses et robustes. Le limbe est segmenté 4 à 5 fois. Il n'y a pas de fausses nervures.
 Crepidomanes aphlebioides (Christ) Bostock (1998) - Nouvelle-Guinée (Synonymes : Trichomanes aphlebioides Christ, Vandenboschia aphlebioides (Christ) Copel.)
 Crepidomanes grande (Copel.) Ebihara &amp; K.Iwats. (2006) - Philippines, Bornéo, Nouvelle-Guinée (Synonymes : Cephalomanes grande (Copel.) K.Iwats., Nesopteris grandis (Copel.) Copel., Trichomanes grande Copel., Trichomanes millefolium C.Presl (pour partie), Trichomanes preslianum Nakai), Trichomanes uniflorum Cav.
 Crepidomanes intermedium (Bosch) Ebihara &amp; K.Iwats. (2006) -  (Synonyme : Trichomanes intermedium Bosch)
-Crepidomanes thysanostomum (Makino) Ebihara &amp; K.Iwats. (2006) - Nansei-shoto (Asie de l'Est tempérée) (Synonymes : Cephalomanes thysanostomum (Makino) K.Iwats., Trichomanes thysanostomum Makino)
-Espèces classées dans d'autres genres
-Crepidomanes acutum (C.Presl) K.Iwats. (1984) - Philippines - Voir Hymenophyllum acutum (C.Presl) Ebihara &amp; K.Iwats. (synonyme : Trichomanes acutum C.Presl)
+Crepidomanes thysanostomum (Makino) Ebihara &amp; K.Iwats. (2006) - Nansei-shoto (Asie de l'Est tempérée) (Synonymes : Cephalomanes thysanostomum (Makino) K.Iwats., Trichomanes thysanostomum Makino)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Crepidomanes</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crepidomanes</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Espèces classées dans d'autres genres</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Crepidomanes acutum (C.Presl) K.Iwats. (1984) - Philippines - Voir Hymenophyllum acutum (C.Presl) Ebihara &amp; K.Iwats. (synonyme : Trichomanes acutum C.Presl)
 Crepidomanes amabile (Nakai) K.Iwats. (1985) - Corée - Voir Vandenboschia amabilis (Nakai) K.Iwats. (synonyme : Trichomanes amabile Nakai)
 Crepidomanes auriculatum (Blume) K.Iwats. (1985) - Japon, Chine, Asie tropicale, Indonésie, Philippines - Voir Vandenboschia auriculata (Blume) Copel. (synonymes : Cephalomanes auriculatum (Blume) Bosch, Cephalomanes dissectum (J.Sm.) Bosch, Lacostea auriculata (Blume) Prantl,  Lacosteopsis auriculata (Blume) Nakaike, Trichomanes auriculatum Blume, Trichomanes belangeri Bory, Trichomanes dimidiatum C.Presl, Trichomanes dissectum J.Sm.)
 Crepidomanes birmanicum (Bedd.) K.Iwats. (1985) - Asie tropicale (Chine méridionale, Cambodge, Japon, Laos, Myanmar, Thaïlande, Vietnam, Corée du Sud) - Voir Vandenboschia birmanica (Bedd.) Ching (synonymes : Trichomanes birmanicum Bedd., Trichomanes radicans var. birmanicum (Bedd.) C.Chr.)
